--- a/DB/object_control.xlsx
+++ b/DB/object_control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanpd1.HOANPD1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source Code\Caka-ICT\Java\Caka-ICT_Java_Library\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="15240" windowHeight="7200"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="object_control" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>object_control_id</t>
   </si>
@@ -316,30 +316,77 @@
   </si>
   <si>
     <t>Button xóa nhiều đơn vị chức năng trực thuộc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -347,12 +394,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -680,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -714,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -731,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -748,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -765,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -782,7 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -799,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -816,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -833,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -850,7 +1048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -867,7 +1065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -884,7 +1082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -901,7 +1099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -918,7 +1116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -935,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -952,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -969,7 +1167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -986,7 +1184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1003,7 +1201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1020,7 +1218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1037,7 +1235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1054,7 +1252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1071,7 +1269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1088,7 +1286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1105,7 +1303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1122,7 +1320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1139,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1156,7 +1354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1173,7 +1371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1190,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1207,7 +1405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1224,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1241,7 +1439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1258,7 +1456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1275,7 +1473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1292,7 +1490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1309,7 +1507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1326,7 +1524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1343,7 +1541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1360,7 +1558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1377,7 +1575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1394,7 +1592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1411,7 +1609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1428,7 +1626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1445,7 +1643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1462,7 +1660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1479,7 +1677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1496,7 +1694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1513,7 +1711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1530,7 +1728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1547,7 +1745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1564,7 +1762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1581,7 +1779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1598,7 +1796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1615,7 +1813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1632,7 +1830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1649,7 +1847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1666,7 +1864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1683,7 +1881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1700,7 +1898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1717,7 +1915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1734,7 +1932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1751,7 +1949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1768,7 +1966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1785,7 +1983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1802,7 +2000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1819,7 +2017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>80</v>
       </c>
@@ -1836,7 +2034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>81</v>
       </c>
@@ -1853,7 +2051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>82</v>
       </c>
@@ -1870,7 +2068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>83</v>
       </c>
@@ -1887,7 +2085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>84</v>
       </c>
@@ -1904,7 +2102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>85</v>
       </c>
@@ -1921,7 +2119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>86</v>
       </c>
@@ -1938,7 +2136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>87</v>
       </c>
@@ -1962,12 +2160,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>